--- a/artfynd/A 39231-2018.xlsx
+++ b/artfynd/A 39231-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5287757</v>
+        <v>97373241</v>
       </c>
       <c r="B2" t="n">
-        <v>98431</v>
+        <v>88921</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,45 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222771</v>
+        <v>5741</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Schaeff.) R. H. Petersen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>800 m O Barkebo, Sm</t>
+          <t>Kalkbarrskogar mellan Barkebo och Uvahult, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>552053.1023924501</v>
+        <v>552177.0773724242</v>
       </c>
       <c r="R2" t="n">
-        <v>6314390.865621684</v>
+        <v>6314217.98070972</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +761,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2012-07-16</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +771,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2012-07-16</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,44 +779,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ledningsgata</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Annan skogsmark</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helena Lager</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ekologa /Jonas Wäglind</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Tobias Ivarsson, Jenny Ivarsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020, Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97373241</v>
+        <v>97373281</v>
       </c>
       <c r="B3" t="n">
-        <v>88921</v>
+        <v>90674</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +824,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5741</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -853,10 +859,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>552177.0773724242</v>
+        <v>552231.7443712527</v>
       </c>
       <c r="R3" t="n">
-        <v>6314217.98070972</v>
+        <v>6314257.917267707</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -930,7 +936,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97373281</v>
+        <v>97373368</v>
       </c>
       <c r="B4" t="n">
         <v>90674</v>
@@ -981,10 +987,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>552231.7443712527</v>
+        <v>552263.9118390031</v>
       </c>
       <c r="R4" t="n">
-        <v>6314257.917267707</v>
+        <v>6314132.394460728</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97373368</v>
+        <v>97373263</v>
       </c>
       <c r="B5" t="n">
         <v>90674</v>
@@ -1109,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>552263.9118390031</v>
+        <v>552231.8765971087</v>
       </c>
       <c r="R5" t="n">
-        <v>6314132.394460728</v>
+        <v>6314203.950545304</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97373263</v>
+        <v>97373308</v>
       </c>
       <c r="B6" t="n">
         <v>90674</v>
@@ -1237,10 +1243,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>552231.8765971087</v>
+        <v>552208.3822540895</v>
       </c>
       <c r="R6" t="n">
-        <v>6314203.950545304</v>
+        <v>6314117.522452059</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1314,7 +1320,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97373308</v>
+        <v>97373247</v>
       </c>
       <c r="B7" t="n">
         <v>90674</v>
@@ -1365,10 +1371,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>552208.3822540895</v>
+        <v>552189.0514209956</v>
       </c>
       <c r="R7" t="n">
-        <v>6314117.522452059</v>
+        <v>6314221.40192148</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97373247</v>
+        <v>97373190</v>
       </c>
       <c r="B8" t="n">
         <v>90674</v>
@@ -1493,10 +1499,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>552189.0514209956</v>
+        <v>552179.2506177292</v>
       </c>
       <c r="R8" t="n">
-        <v>6314221.40192148</v>
+        <v>6314349.38387432</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1570,10 +1576,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97373190</v>
+        <v>97373310</v>
       </c>
       <c r="B9" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1586,21 +1592,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1621,10 +1627,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>552179.2506177292</v>
+        <v>552208.3822540895</v>
       </c>
       <c r="R9" t="n">
-        <v>6314349.38387432</v>
+        <v>6314117.522452059</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1698,10 +1704,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97373310</v>
+        <v>97373192</v>
       </c>
       <c r="B10" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1714,34 +1720,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1749,10 +1748,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>552208.3822540895</v>
+        <v>552179.2506177292</v>
       </c>
       <c r="R10" t="n">
-        <v>6314117.522452059</v>
+        <v>6314349.38387432</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1826,10 +1825,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97373192</v>
+        <v>97373410</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1842,27 +1841,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1870,10 +1876,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>552179.2506177292</v>
+        <v>552266.6175571559</v>
       </c>
       <c r="R11" t="n">
-        <v>6314349.38387432</v>
+        <v>6314090.997027538</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1947,10 +1953,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>97373410</v>
+        <v>97373303</v>
       </c>
       <c r="B12" t="n">
-        <v>90674</v>
+        <v>88921</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1963,21 +1969,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>5741</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1998,10 +2004,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>552266.6175571559</v>
+        <v>552232.9688852476</v>
       </c>
       <c r="R12" t="n">
-        <v>6314090.997027538</v>
+        <v>6314203.964277241</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2075,10 +2081,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>97373303</v>
+        <v>5287757</v>
       </c>
       <c r="B13" t="n">
-        <v>88921</v>
+        <v>98431</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2091,45 +2097,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5741</v>
+        <v>222771</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kalkbarrskogar mellan Barkebo och Uvahult, Sm</t>
+          <t>800 m O Barkebo, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>552232.9688852476</v>
+        <v>552053.1023924501</v>
       </c>
       <c r="R13" t="n">
-        <v>6314203.964277241</v>
+        <v>6314390.865621684</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2156,7 +2151,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2012-07-16</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2166,7 +2161,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2012-07-16</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2174,32 +2169,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ledningsgata</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Annan skogsmark</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>Helena Lager</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson, Jenny Ivarsson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020, Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
-        </is>
-      </c>
+          <t>Ekologa /Jonas Wäglind</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 39231-2018.xlsx
+++ b/artfynd/A 39231-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97373241</v>
+        <v>5287757</v>
       </c>
       <c r="B2" t="n">
-        <v>88921</v>
+        <v>98431</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,45 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5741</v>
+        <v>222771</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kalkbarrskogar mellan Barkebo och Uvahult, Sm</t>
+          <t>800 m O Barkebo, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>552177.0773724242</v>
+        <v>552053.1023924501</v>
       </c>
       <c r="R2" t="n">
-        <v>6314217.98070972</v>
+        <v>6314390.865621684</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2012-07-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -771,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2012-07-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,39 +768,44 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ledningsgata</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Annan skogsmark</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>Helena Lager</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson, Jenny Ivarsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020, Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
-        </is>
-      </c>
+          <t>Ekologa /Jonas Wäglind</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97373281</v>
+        <v>97373241</v>
       </c>
       <c r="B3" t="n">
-        <v>90674</v>
+        <v>88921</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -824,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>5741</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -859,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>552231.7443712527</v>
+        <v>552177.0773724242</v>
       </c>
       <c r="R3" t="n">
-        <v>6314257.917267707</v>
+        <v>6314217.98070972</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -936,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97373368</v>
+        <v>97373281</v>
       </c>
       <c r="B4" t="n">
         <v>90674</v>
@@ -987,10 +981,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>552263.9118390031</v>
+        <v>552231.7443712527</v>
       </c>
       <c r="R4" t="n">
-        <v>6314132.394460728</v>
+        <v>6314257.917267707</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1064,7 +1058,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97373263</v>
+        <v>97373368</v>
       </c>
       <c r="B5" t="n">
         <v>90674</v>
@@ -1115,10 +1109,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>552231.8765971087</v>
+        <v>552263.9118390031</v>
       </c>
       <c r="R5" t="n">
-        <v>6314203.950545304</v>
+        <v>6314132.394460728</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1192,7 +1186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97373308</v>
+        <v>97373263</v>
       </c>
       <c r="B6" t="n">
         <v>90674</v>
@@ -1243,10 +1237,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>552208.3822540895</v>
+        <v>552231.8765971087</v>
       </c>
       <c r="R6" t="n">
-        <v>6314117.522452059</v>
+        <v>6314203.950545304</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1320,7 +1314,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97373247</v>
+        <v>97373308</v>
       </c>
       <c r="B7" t="n">
         <v>90674</v>
@@ -1371,10 +1365,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>552189.0514209956</v>
+        <v>552208.3822540895</v>
       </c>
       <c r="R7" t="n">
-        <v>6314221.40192148</v>
+        <v>6314117.522452059</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1448,7 +1442,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97373190</v>
+        <v>97373247</v>
       </c>
       <c r="B8" t="n">
         <v>90674</v>
@@ -1499,10 +1493,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>552179.2506177292</v>
+        <v>552189.0514209956</v>
       </c>
       <c r="R8" t="n">
-        <v>6314349.38387432</v>
+        <v>6314221.40192148</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1576,10 +1570,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97373310</v>
+        <v>97373190</v>
       </c>
       <c r="B9" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1592,21 +1586,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1627,10 +1621,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>552208.3822540895</v>
+        <v>552179.2506177292</v>
       </c>
       <c r="R9" t="n">
-        <v>6314117.522452059</v>
+        <v>6314349.38387432</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1704,10 +1698,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97373192</v>
+        <v>97373310</v>
       </c>
       <c r="B10" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1720,27 +1714,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1748,10 +1749,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>552179.2506177292</v>
+        <v>552208.3822540895</v>
       </c>
       <c r="R10" t="n">
-        <v>6314349.38387432</v>
+        <v>6314117.522452059</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1825,10 +1826,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97373410</v>
+        <v>97373192</v>
       </c>
       <c r="B11" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1841,34 +1842,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1876,10 +1870,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>552266.6175571559</v>
+        <v>552179.2506177292</v>
       </c>
       <c r="R11" t="n">
-        <v>6314090.997027538</v>
+        <v>6314349.38387432</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1953,10 +1947,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>97373303</v>
+        <v>97373410</v>
       </c>
       <c r="B12" t="n">
-        <v>88921</v>
+        <v>90674</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1969,21 +1963,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5741</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2004,10 +1998,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>552232.9688852476</v>
+        <v>552266.6175571559</v>
       </c>
       <c r="R12" t="n">
-        <v>6314203.964277241</v>
+        <v>6314090.997027538</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2081,10 +2075,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5287757</v>
+        <v>97373303</v>
       </c>
       <c r="B13" t="n">
-        <v>98431</v>
+        <v>88921</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2097,34 +2091,45 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222771</v>
+        <v>5741</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Schaeff.) R. H. Petersen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>800 m O Barkebo, Sm</t>
+          <t>Kalkbarrskogar mellan Barkebo och Uvahult, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>552053.1023924501</v>
+        <v>552232.9688852476</v>
       </c>
       <c r="R13" t="n">
-        <v>6314390.865621684</v>
+        <v>6314203.964277241</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2151,7 +2156,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2012-07-16</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2161,7 +2166,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2012-07-16</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2169,37 +2174,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ledningsgata</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Annan skogsmark</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Helena Lager</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Ekologa /Jonas Wäglind</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Tobias Ivarsson, Jenny Ivarsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020, Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
